--- a/donaldson_201_books.xlsx
+++ b/donaldson_201_books.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egrstudent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12155D0-CADE-453D-9D56-942E67843735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="-5715" yWindow="5374" windowWidth="12722" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
   <si>
     <t>Title</t>
   </si>
@@ -114,16 +115,757 @@
   </si>
   <si>
     <t>Scott, William</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Electrodynamics </t>
+  </si>
+  <si>
+    <t>Fundamentals of Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>Loeb, Leonard</t>
+  </si>
+  <si>
+    <t>Electrodynamics</t>
+  </si>
+  <si>
+    <t>Sommerfield, Arnold</t>
+  </si>
+  <si>
+    <t>Elements of Electromagnetic Waves</t>
+  </si>
+  <si>
+    <t>Ware, Lawrence</t>
+  </si>
+  <si>
+    <t>Fundamentals of Applied Electromagnetics</t>
+  </si>
+  <si>
+    <t>Ulaby, Fawwaz</t>
+  </si>
+  <si>
+    <t>Electric and Magnetic Susceptibilities</t>
+  </si>
+  <si>
+    <t>Van Vleck, J. H.</t>
+  </si>
+  <si>
+    <t>Electrostatic Hazards</t>
+  </si>
+  <si>
+    <t>Luttgens, Gunter &amp; Wilson, Norman</t>
+  </si>
+  <si>
+    <t>Digest of Literature on Dielectrics V. 32</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Number of</t>
+  </si>
+  <si>
+    <t>National Academy of Sciences</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Classical Electromagnetic Radiation</t>
+  </si>
+  <si>
+    <t>Heald, Mark &amp; Marion, Jerry</t>
+  </si>
+  <si>
+    <t>An Introduction to Radioactivity</t>
+  </si>
+  <si>
+    <t>Jenkins, E.N.</t>
+  </si>
+  <si>
+    <t>Electricity, Magnetism, and Light</t>
+  </si>
+  <si>
+    <t>Saslow, Wayne</t>
+  </si>
+  <si>
+    <t>Biological Effects of Electromagnetic Radiation</t>
+  </si>
+  <si>
+    <t>Osepchuk, John</t>
+  </si>
+  <si>
+    <t>Introductory Electromagnetics</t>
+  </si>
+  <si>
+    <t>Popovic, Zoya &amp; Popovic, Branko</t>
+  </si>
+  <si>
+    <t>Introductory Electromagnetics (Practice, Problems, and Labs)</t>
+  </si>
+  <si>
+    <t>Electromagnetics (Third Edition)</t>
+  </si>
+  <si>
+    <t>Edminister, Joseph &amp; Nahvi, Mahmood</t>
+  </si>
+  <si>
+    <t>Electromagnetics (Fourth Edition)</t>
+  </si>
+  <si>
+    <t>Electromagnetic Concepts and Applications</t>
+  </si>
+  <si>
+    <t>Marshall, Stanley &amp; Skitek, Gabriel</t>
+  </si>
+  <si>
+    <t>Fundamentals of Applied Electromagnetics (Solutions Manual)</t>
+  </si>
+  <si>
+    <t>Applied Electromagnetics: Early Transmission Lines Approach</t>
+  </si>
+  <si>
+    <t>Wentworth, Stuart</t>
+  </si>
+  <si>
+    <t>Electromagnetism for Engineers</t>
+  </si>
+  <si>
+    <t>Hammond, P.</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetics</t>
+  </si>
+  <si>
+    <t>Demarest, Kenneth</t>
+  </si>
+  <si>
+    <t>Hayt, William</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetics (Third Edition)</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetics (Fourth Edition)</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetics (Seventh Edition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Electromagnetics </t>
+  </si>
+  <si>
+    <t>Inan, Umran &amp; Inan, Aziz</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetics (Solutions Manual)</t>
+  </si>
+  <si>
+    <t>Electromagnetic Fields and Relativistic Particles</t>
+  </si>
+  <si>
+    <t>Konopinski, Emil</t>
+  </si>
+  <si>
+    <t>Practical Electromagnetics</t>
+  </si>
+  <si>
+    <t>Misra, Devendra</t>
+  </si>
+  <si>
+    <t>Electromagnetics for Engineers</t>
+  </si>
+  <si>
+    <t>Paul, Clayton</t>
+  </si>
+  <si>
+    <t>Electromagnetics for Engineers (Solutions Companion)</t>
+  </si>
+  <si>
+    <t>Elements of Engineering Electromagnetics</t>
+  </si>
+  <si>
+    <t>Rao, Nannpaneni</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Principles of Electromagnetics</t>
+  </si>
+  <si>
+    <t>Schwartz, Melvin</t>
+  </si>
+  <si>
+    <t>Schwarz, Steven</t>
+  </si>
+  <si>
+    <t>Electromagnetics for Engineers (Solutions Manual)</t>
+  </si>
+  <si>
+    <t>Electromagnetics Crash Course</t>
+  </si>
+  <si>
+    <t>Edminister, Joseph</t>
+  </si>
+  <si>
+    <t>Foundations of Electromagnetic Theory</t>
+  </si>
+  <si>
+    <t>Milford, Frederick &amp; Reitz, John</t>
+  </si>
+  <si>
+    <t>Electromagnetic Fields and Interactions Volume 1</t>
+  </si>
+  <si>
+    <t>Becker, Richard &amp; Sauter, Fritz</t>
+  </si>
+  <si>
+    <t>Engineering Electromagnetic Fields and Waves</t>
+  </si>
+  <si>
+    <t>Johnk, Carl</t>
+  </si>
+  <si>
+    <t>Electromagnetic Fields and Waves</t>
+  </si>
+  <si>
+    <t>Lorrain, Paul &amp; Corson, Dale</t>
+  </si>
+  <si>
+    <t>Electrical and Electronic Engineering: Traveling-wave Engineering</t>
+  </si>
+  <si>
+    <t>Moore, R. K.</t>
+  </si>
+  <si>
+    <t>Electrical and Electronic Engineering: Electric Fields</t>
+  </si>
+  <si>
+    <t>Rogers, Walter</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>Electrical and Electronic Engineering: Electromagnetics</t>
+  </si>
+  <si>
+    <t>Electrical and Electronic Engineering: Time-Harmonic Electromagnetic Fields</t>
+  </si>
+  <si>
+    <t>Kraus, John</t>
+  </si>
+  <si>
+    <t>Rojansky, Vladimir</t>
+  </si>
+  <si>
+    <t>Electromagnetic Waves</t>
+  </si>
+  <si>
+    <t>White, F. W. G.</t>
+  </si>
+  <si>
+    <t>Dynamic Electromagnetics</t>
+  </si>
+  <si>
+    <t>Diament, Paul</t>
+  </si>
+  <si>
+    <t>Electromagnetic Field Theory</t>
+  </si>
+  <si>
+    <t>Zahn, Markus</t>
+  </si>
+  <si>
+    <t>Principles of Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Slichter, Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electromagnetic and Quantum Properties </t>
+  </si>
+  <si>
+    <t>Need to manually add to goodreads</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Nussbaum, Allen</t>
+  </si>
+  <si>
+    <t>Coupling of External Electromagnetic Fields to Transmission Lines</t>
+  </si>
+  <si>
+    <t>Smith, Albert</t>
+  </si>
+  <si>
+    <t>Elements of Electromagnetics</t>
+  </si>
+  <si>
+    <t>Sadiku, Matthew</t>
+  </si>
+  <si>
+    <t>Grounding and Shielding Techniques in Instrumention</t>
+  </si>
+  <si>
+    <t>Morrison, Ralph</t>
+  </si>
+  <si>
+    <t>Magnetic-amplifier Circuits</t>
+  </si>
+  <si>
+    <t>Geygar, William</t>
+  </si>
+  <si>
+    <t>Applied Electrostatic Precipitation</t>
+  </si>
+  <si>
+    <t>Parker, K.R.</t>
+  </si>
+  <si>
+    <t>Handbook of Electromagnetic Propagation in Conducting Media</t>
+  </si>
+  <si>
+    <t>Kraichman, Martin</t>
+  </si>
+  <si>
+    <t>Electrode Erosion in High Current, High Energy Transient Arcs</t>
+  </si>
+  <si>
+    <t>Donaldson, Anthony</t>
+  </si>
+  <si>
+    <t>Electromagnetics Explained</t>
+  </si>
+  <si>
+    <t>Schmitt, Ron</t>
+  </si>
+  <si>
+    <t>Lines and Electromagnetic Fields for Engineers</t>
+  </si>
+  <si>
+    <t>Miner, Gayle</t>
+  </si>
+  <si>
+    <t>Everything above this line needs to be added to goodreads</t>
+  </si>
+  <si>
+    <t>What's so funny about Science?</t>
+  </si>
+  <si>
+    <t>Harris, Sidney</t>
+  </si>
+  <si>
+    <t>Coping with Computer Egos</t>
+  </si>
+  <si>
+    <t>Seymour, John</t>
+  </si>
+  <si>
+    <t>The Technician's EMI Handbook Clues and Solutions</t>
+  </si>
+  <si>
+    <t>Carr, Joseph</t>
+  </si>
+  <si>
+    <t>The Chemical History of a Candle</t>
+  </si>
+  <si>
+    <t>Faraday, Michael</t>
+  </si>
+  <si>
+    <t>A Student's Guide to Maxwell's Equations</t>
+  </si>
+  <si>
+    <t>Fleisch, Daniel</t>
+  </si>
+  <si>
+    <t>Magnetic Core Materials Practice</t>
+  </si>
+  <si>
+    <t>Allegheny Steel Company</t>
+  </si>
+  <si>
+    <t>Physical and Technical Security: An Introduction</t>
+  </si>
+  <si>
+    <t>Gruber, Robert</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics Statics Study Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibbeler, R.C. </t>
+  </si>
+  <si>
+    <t>In Time of Emergency</t>
+  </si>
+  <si>
+    <t>Department of Defense</t>
+  </si>
+  <si>
+    <t>Creativity in Science</t>
+  </si>
+  <si>
+    <t>Thomas, Charles</t>
+  </si>
+  <si>
+    <t>An Egineering Approach to Digital Design</t>
+  </si>
+  <si>
+    <t>Fletcher, William</t>
+  </si>
+  <si>
+    <t>Transmission Lines in Digital Systems for EMC Practitioners</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Introduction to Airborne Radar</t>
+  </si>
+  <si>
+    <t>Stimson, George</t>
+  </si>
+  <si>
+    <t>Reference Data for Radio Engineers</t>
+  </si>
+  <si>
+    <t>Howard W. Sams &amp; CO</t>
+  </si>
+  <si>
+    <t>Dictionary of Science and Technology</t>
+  </si>
+  <si>
+    <t>Chambers</t>
+  </si>
+  <si>
+    <t>Biomedical Tehcnology and Devices Handbook</t>
+  </si>
+  <si>
+    <t>Moore, James &amp; Zouridakis, George</t>
+  </si>
+  <si>
+    <t>Fields and Waves in Communications Electronics</t>
+  </si>
+  <si>
+    <t>Ramo, Simon</t>
+  </si>
+  <si>
+    <t>High Voltage Cables</t>
+  </si>
+  <si>
+    <t>Dunsheath</t>
+  </si>
+  <si>
+    <t>Transmission Lines : Design, Construction, Performance</t>
+  </si>
+  <si>
+    <t>DeWeisse, Fred</t>
+  </si>
+  <si>
+    <t>Foundations of Antennas</t>
+  </si>
+  <si>
+    <t>Kildal, Per-Simon</t>
+  </si>
+  <si>
+    <t>Magnetic Resonance of Biomolecules</t>
+  </si>
+  <si>
+    <t>Knowles, Peter</t>
+  </si>
+  <si>
+    <t>Gaseous Conductors: Theory and Engineering Applications</t>
+  </si>
+  <si>
+    <t>Cobine, James</t>
+  </si>
+  <si>
+    <t>Gas Discharge Closing Switches</t>
+  </si>
+  <si>
+    <t>Schaefer, Gerhard</t>
+  </si>
+  <si>
+    <t>Elementary Nuclear Theory</t>
+  </si>
+  <si>
+    <t>Bethe, H.A.</t>
+  </si>
+  <si>
+    <t>Megagauss Fields and Pulsed Power Systems</t>
+  </si>
+  <si>
+    <t>Titov, V. M.</t>
+  </si>
+  <si>
+    <t>The Electric Car</t>
+  </si>
+  <si>
+    <t>Westbrook, Michael</t>
+  </si>
+  <si>
+    <t>Build Your Own Electric Vehicle</t>
+  </si>
+  <si>
+    <t>Brant, Bob</t>
+  </si>
+  <si>
+    <t>Convert It</t>
+  </si>
+  <si>
+    <t>Brown, Michael &amp; Prange, Shari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Vehicles </t>
+  </si>
+  <si>
+    <t>Hackleman, Michael</t>
+  </si>
+  <si>
+    <t>Electrical Manipulation of Cells</t>
+  </si>
+  <si>
+    <t>Lynch, Paul &amp; Davey, Michael</t>
+  </si>
+  <si>
+    <t>Microwave Engineers' Handbook V. 1</t>
+  </si>
+  <si>
+    <t>Microwave Engineers' Handbook V. 2</t>
+  </si>
+  <si>
+    <t>Saad, Theodore</t>
+  </si>
+  <si>
+    <t>Foundations for Microwave Engineering</t>
+  </si>
+  <si>
+    <t>Collin, Robert</t>
+  </si>
+  <si>
+    <t>A History of Electrical Power Engineering</t>
+  </si>
+  <si>
+    <t>Dunsheath, Percy</t>
+  </si>
+  <si>
+    <t>Electronic Variable Speed Drives</t>
+  </si>
+  <si>
+    <t>Brumbach</t>
+  </si>
+  <si>
+    <t>Electroacoustics</t>
+  </si>
+  <si>
+    <t>Hunt, Frederick</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Stoliberg</t>
+  </si>
+  <si>
+    <t>American Standard Definitions of Electrical Terms</t>
+  </si>
+  <si>
+    <t>The American Institute of Electrical Engineers</t>
+  </si>
+  <si>
+    <t>Electronics and Electron Tubes</t>
+  </si>
+  <si>
+    <t>McArthur, E. D.</t>
+  </si>
+  <si>
+    <t>Direct and Alternating Currents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loew, E.A. </t>
+  </si>
+  <si>
+    <t>Direct -Current Machinery</t>
+  </si>
+  <si>
+    <t>Kloeffler, Royce</t>
+  </si>
+  <si>
+    <t>Fundamentals of Computational Fluid Dynamics</t>
+  </si>
+  <si>
+    <t>Roache, Patrick</t>
+  </si>
+  <si>
+    <t>An introduction to Computational Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>Chow, Chuen-Yow</t>
+  </si>
+  <si>
+    <t>Computational Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>Methods of Theoretical Physics</t>
+  </si>
+  <si>
+    <t>Morse, Philip &amp; Feshbach, Herman</t>
+  </si>
+  <si>
+    <t>Kittel, Charles</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>Crawford, Frank</t>
+  </si>
+  <si>
+    <t>Quantum Physics</t>
+  </si>
+  <si>
+    <t>Wichman, Eyvind</t>
+  </si>
+  <si>
+    <t>Statistical Physics</t>
+  </si>
+  <si>
+    <t>Reif, F</t>
+  </si>
+  <si>
+    <t>The Power of Light</t>
+  </si>
+  <si>
+    <t>Kryza, Frank</t>
+  </si>
+  <si>
+    <t>Optics</t>
+  </si>
+  <si>
+    <t>Klein, Miles</t>
+  </si>
+  <si>
+    <t>Light: The Visible Spectrum and Beyond</t>
+  </si>
+  <si>
+    <t>Arcand, Kimberly &amp; Watzke, Megan</t>
+  </si>
+  <si>
+    <t>Principles of Holography</t>
+  </si>
+  <si>
+    <t>Smith, Howard</t>
+  </si>
+  <si>
+    <t>Principles of Optics</t>
+  </si>
+  <si>
+    <t>Born, Max &amp; Wolf, Emil</t>
+  </si>
+  <si>
+    <t>Optics and Vision</t>
+  </si>
+  <si>
+    <t>Pedrotti, Leno &amp; Pedrotti, Frank</t>
+  </si>
+  <si>
+    <t>Eye, Brain, and Vision</t>
+  </si>
+  <si>
+    <t>Hubel, David</t>
+  </si>
+  <si>
+    <t>The Principles of Light &amp; Color</t>
+  </si>
+  <si>
+    <t>Babbitt, Edwin</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Reimann, Arnold</t>
+  </si>
+  <si>
+    <t>Electromagnetism</t>
+  </si>
+  <si>
+    <t>Slater, John &amp; Frank, Nathaniel</t>
+  </si>
+  <si>
+    <t>An Introduction to Thermal Physics</t>
+  </si>
+  <si>
+    <t>Schroeder, Daniel</t>
+  </si>
+  <si>
+    <t>Engineering Thermodynamics</t>
+  </si>
+  <si>
+    <t>Potter, Merle &amp; Somerton, Craig</t>
+  </si>
+  <si>
+    <t>The New Heat Transfer</t>
+  </si>
+  <si>
+    <t>Adiutori, Eugene</t>
+  </si>
+  <si>
+    <t>Solid State Physics</t>
+  </si>
+  <si>
+    <t>Blakemore, J. S.</t>
+  </si>
+  <si>
+    <t>Introduction to Solid State Physics</t>
+  </si>
+  <si>
+    <t>Physics Part 1</t>
+  </si>
+  <si>
+    <t>Resnick, Robert &amp; Halliday, David</t>
+  </si>
+  <si>
+    <t>Feynman, Richard</t>
+  </si>
+  <si>
+    <t>The Feynman Lectures on Physics Vol 2</t>
+  </si>
+  <si>
+    <t>The Feynman Lectures on Physics Vol 3</t>
+  </si>
+  <si>
+    <t>Gasiorowicz, Stephen</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +877,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +907,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,16 +922,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -213,13 +976,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D15"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Title" dataDxfId="4"/>
-    <tableColumn id="2" name="Author" dataDxfId="3"/>
-    <tableColumn id="3" name="Year" dataDxfId="2"/>
-    <tableColumn id="4" name="ID #" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID #" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="Number of" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Need to manually add to goodreads" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3745232E-EC3D-4E19-A4D3-3402BBD4120F}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -487,231 +1254,2763 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101:E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.59765625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="3"/>
+    <col min="4" max="4" width="33.5703125" style="4"/>
+    <col min="6" max="8" width="33.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1981</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1968</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1962</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1993</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1987</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1987</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1960</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1960</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1951</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1970</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1959</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>14</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1947</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1952</v>
+      </c>
+      <c r="D18" s="4">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1949</v>
+      </c>
+      <c r="D19" s="4">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1932</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1997</v>
+      </c>
+      <c r="D22" s="4">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1964</v>
+      </c>
+      <c r="D25" s="4">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1983</v>
+      </c>
+      <c r="D27" s="4">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1965</v>
+      </c>
+      <c r="D28" s="4">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="4">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D32" s="4">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D33" s="4">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D34" s="4">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D35" s="4">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D36" s="4">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1964</v>
+      </c>
+      <c r="D37" s="4">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1998</v>
+      </c>
+      <c r="D38" s="4">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1974</v>
+      </c>
+      <c r="D39" s="4">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1981</v>
+      </c>
+      <c r="D40" s="4">
+        <v>39</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D41" s="4">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D42" s="4">
+        <v>41</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1981</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D47" s="4">
+        <v>46</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="4">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1987</v>
+      </c>
+      <c r="D49" s="4">
+        <v>48</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D50" s="4">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D51" s="4">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D52" s="4">
+        <v>51</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1967</v>
+      </c>
+      <c r="D53" s="4">
+        <v>52</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1979</v>
+      </c>
+      <c r="D54" s="4">
+        <v>53</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1964</v>
+      </c>
+      <c r="D55" s="4">
+        <v>54</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1975</v>
+      </c>
+      <c r="D56" s="4">
+        <v>55</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D57" s="4">
+        <v>56</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1960</v>
+      </c>
+      <c r="D58" s="4">
+        <v>57</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1954</v>
+      </c>
+      <c r="D59" s="4">
+        <v>58</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1961</v>
+      </c>
+      <c r="D60" s="4">
+        <v>59</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1953</v>
+      </c>
+      <c r="D61" s="4">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1971</v>
+      </c>
+      <c r="D62" s="4">
+        <v>61</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D63" s="4">
+        <v>62</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="4">
+        <v>63</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1979</v>
+      </c>
+      <c r="D65" s="4">
+        <v>64</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1963</v>
+      </c>
+      <c r="D66" s="4">
+        <v>65</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1966</v>
+      </c>
+      <c r="D67" s="4">
+        <v>66</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1977</v>
+      </c>
+      <c r="D68" s="4">
+        <v>67</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D69" s="4">
+        <v>68</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1986</v>
+      </c>
+      <c r="D70" s="4">
+        <v>69</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1998</v>
+      </c>
+      <c r="D71" s="4">
+        <v>70</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1954</v>
+      </c>
+      <c r="D72" s="4">
+        <v>71</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1997</v>
+      </c>
+      <c r="D73" s="4">
+        <v>72</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D74" s="4">
+        <v>73</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D75" s="4">
+        <v>74</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D76" s="4">
+        <v>75</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1996</v>
+      </c>
+      <c r="D77" s="4">
+        <v>76</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1977</v>
+      </c>
+      <c r="D78" s="4">
+        <v>77</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1984</v>
+      </c>
+      <c r="D79" s="4">
+        <v>78</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="4">
+        <v>79</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D81" s="4">
+        <v>80</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D82" s="4">
+        <v>81</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1937</v>
+      </c>
+      <c r="D83" s="4">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D84" s="4">
+        <v>83</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D85" s="4">
+        <v>84</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D86" s="4">
+        <v>85</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1955</v>
+      </c>
+      <c r="D87" s="4">
+        <v>86</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D88" s="4">
+        <v>87</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D89" s="4">
+        <v>88</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D90" s="4">
+        <v>89</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D91" s="4">
+        <v>90</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D92" s="4">
+        <v>91</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D93" s="4">
+        <v>92</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1965</v>
+      </c>
+      <c r="D94" s="4">
+        <v>93</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1929</v>
+      </c>
+      <c r="D95" s="4">
+        <v>94</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1945</v>
+      </c>
+      <c r="D96" s="4">
+        <v>95</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="4">
+        <v>96</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D98" s="4">
+        <v>97</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1958</v>
+      </c>
+      <c r="D99" s="4">
+        <v>98</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D100" s="4">
+        <v>99</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1947</v>
+      </c>
+      <c r="D101" s="4">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D102" s="4">
+        <v>101</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D103" s="4">
+        <v>102</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1993</v>
+      </c>
+      <c r="D104" s="4">
+        <v>103</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1993</v>
+      </c>
+      <c r="D105" s="4">
+        <v>104</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D106" s="4">
+        <v>105</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1995</v>
+      </c>
+      <c r="D107" s="4">
+        <v>106</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1971</v>
+      </c>
+      <c r="D108" s="4">
+        <v>107</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1971</v>
+      </c>
+      <c r="D109" s="4">
+        <v>108</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D110" s="4">
+        <v>109</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1969</v>
+      </c>
+      <c r="D111" s="4">
+        <v>110</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D112" s="4">
+        <v>111</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1954</v>
+      </c>
+      <c r="D113" s="4">
+        <v>112</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1941</v>
+      </c>
+      <c r="D114" s="4">
+        <v>113</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D115" s="4">
+        <v>114</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1936</v>
+      </c>
+      <c r="D116" s="4">
+        <v>115</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1946</v>
+      </c>
+      <c r="D117" s="4">
+        <v>116</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1949</v>
+      </c>
+      <c r="D118" s="4">
+        <v>117</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1998</v>
+      </c>
+      <c r="D119" s="4">
+        <v>118</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1979</v>
+      </c>
+      <c r="D120" s="4">
+        <v>119</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D121" s="4">
+        <v>120</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1953</v>
+      </c>
+      <c r="D122" s="4">
+        <v>121</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1965</v>
+      </c>
+      <c r="D123" s="4">
+        <v>122</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1968</v>
+      </c>
+      <c r="D124" s="4">
+        <v>123</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1971</v>
+      </c>
+      <c r="D125" s="4">
+        <v>124</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1967</v>
+      </c>
+      <c r="D126" s="4">
+        <v>125</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D127" s="4">
+        <v>126</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D128" s="4">
+        <v>127</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D129" s="4">
+        <v>128</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1975</v>
+      </c>
+      <c r="D130" s="4">
+        <v>129</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D131" s="4">
+        <v>130</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1997</v>
+      </c>
+      <c r="D132" s="4">
+        <v>131</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1988</v>
+      </c>
+      <c r="D133" s="4">
+        <v>132</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D134" s="4">
+        <v>133</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1971</v>
+      </c>
+      <c r="D135" s="4">
+        <v>134</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1947</v>
+      </c>
+      <c r="D136" s="4">
+        <v>135</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1999</v>
+      </c>
+      <c r="D137" s="4">
+        <v>136</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1992</v>
+      </c>
+      <c r="D138" s="4">
+        <v>137</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1989</v>
+      </c>
+      <c r="D139" s="4">
+        <v>138</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1974</v>
+      </c>
+      <c r="D140" s="4">
+        <v>139</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1976</v>
+      </c>
+      <c r="D141" s="4">
+        <v>140</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1966</v>
+      </c>
+      <c r="D142" s="4">
+        <v>141</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1966</v>
+      </c>
+      <c r="D143" s="4">
+        <v>142</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1966</v>
+      </c>
+      <c r="D144" s="4">
+        <v>143</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1974</v>
+      </c>
+      <c r="D145" s="4">
+        <v>144</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D148" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D149" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D150" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D151" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D152" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D153" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D154" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D155" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D156" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D157" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D158" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D159" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D160" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="4">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/donaldson_201_books.xlsx
+++ b/donaldson_201_books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\GitHub\student_workers_su21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12155D0-CADE-453D-9D56-942E67843735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406984AF-A921-4416-B310-9AE488FFEA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5715" yWindow="5374" windowWidth="12722" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -931,7 +931,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -941,6 +940,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -983,10 +983,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID #" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="Number of" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Need to manually add to goodreads" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{3745232E-EC3D-4E19-A4D3-3402BBD4120F}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="Number of" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Need to manually add to goodreads" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{3745232E-EC3D-4E19-A4D3-3402BBD4120F}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,11 +1257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101:E145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
@@ -1296,7 +1296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>109</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>102</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>115</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>119</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>121</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>125</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>133</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>135</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>137</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>139</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>144</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>146</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>148</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>150</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>152</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>154</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>156</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>159</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>165</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>167</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>169</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>173</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>175</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>177</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>179</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>181</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>183</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>187</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>189</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>191</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>193</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>195</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>197</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>199</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>203</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>205</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>206</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>208</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>210</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>212</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>214</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>216</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>218</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>220</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>222</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>224</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>226</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>228</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>230</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>231</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>234</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>235</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>237</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>239</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>241</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>243</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>245</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>247</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>249</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>251</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>253</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>255</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>257</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>259</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>261</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>263</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>265</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>267</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>269</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>270</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>273</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>274</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>237</v>
       </c>
@@ -3804,152 +3804,152 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D146" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D147" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D148" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D149" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D150" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D151" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D152" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D153" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D154" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D155" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D156" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D157" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D158" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D159" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D160" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D161" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D162" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D163" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D164" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D165" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D166" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D167" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D168" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D169" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D170" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D171" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D172" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D173" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D174" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
       <c r="D175" s="4">
         <v>174</v>
       </c>

--- a/donaldson_201_books.xlsx
+++ b/donaldson_201_books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\GitHub\student_workers_su21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbjur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406984AF-A921-4416-B310-9AE488FFEA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70C203-2418-4911-AE31-BA10F78016D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="310">
   <si>
     <t>Title</t>
   </si>
@@ -856,6 +856,105 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>Elementary Partial Differential Equations with Boundary Value Problems</t>
+  </si>
+  <si>
+    <t>Andrews, Larry</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Higher Mathematics for Engineers and Physics</t>
+  </si>
+  <si>
+    <t>Sokolnikoff, Ivan &amp; Sokolnikoff, Elizabeth</t>
+  </si>
+  <si>
+    <t>Mathematical Methods of Physics</t>
+  </si>
+  <si>
+    <t>Mathews, Jon &amp; Walker, R.L.</t>
+  </si>
+  <si>
+    <t>Magnetism and Very Low Temperatures</t>
+  </si>
+  <si>
+    <t>Casimir, H.B.G.</t>
+  </si>
+  <si>
+    <t>Dictionary of Applied Math for Physics for Engineers and Scientists</t>
+  </si>
+  <si>
+    <t>Previato, Emma</t>
+  </si>
+  <si>
+    <t>A Student's Guide to Vectors and Tensors</t>
+  </si>
+  <si>
+    <t>Advanced Engineering Mathematics</t>
+  </si>
+  <si>
+    <t>Wylie, C.R.</t>
+  </si>
+  <si>
+    <t>Nonlinear Differential Equations</t>
+  </si>
+  <si>
+    <t>Struble, Raimond</t>
+  </si>
+  <si>
+    <t>Theory and Problems of Probability, Random Variable, and Random Processes</t>
+  </si>
+  <si>
+    <t>Hsu, Hwei</t>
+  </si>
+  <si>
+    <t>Theory and Problems of Probability</t>
+  </si>
+  <si>
+    <t>Lipschutz, Seymour &amp; Lipson, Marc</t>
+  </si>
+  <si>
+    <t>Handbook of Physical Calculations</t>
+  </si>
+  <si>
+    <t>Tuma, Jan</t>
+  </si>
+  <si>
+    <t>Advanced Calculus for Applications</t>
+  </si>
+  <si>
+    <t>Hildebrand, Francis</t>
+  </si>
+  <si>
+    <t>Partial Differential Equations in Physics</t>
+  </si>
+  <si>
+    <t>Kreyszig, Erwin</t>
+  </si>
+  <si>
+    <t>Heavisides Operational Calculus</t>
+  </si>
+  <si>
+    <t>Berg, Ernst</t>
+  </si>
+  <si>
+    <t>Div, Grad, Curl, and All That</t>
+  </si>
+  <si>
+    <t>Schey, H.M.</t>
+  </si>
+  <si>
+    <t>Boundary Value Problems</t>
+  </si>
+  <si>
+    <t>Powers, David</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,6 +1024,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +1042,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -948,6 +1049,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -976,17 +1078,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
   <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID #" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="Number of" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Need to manually add to goodreads" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{3745232E-EC3D-4E19-A4D3-3402BBD4120F}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Title" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Author" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID #" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{59244217-95DE-4CD7-A971-11EDF8E51C2A}" name="Shelf" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{436E2086-A9D0-42F8-9169-90B74E6B0FC2}" name="Number of" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5F9613C4-49C8-4E47-BCE1-6AE17FC607A8}" name="Need to manually add to goodreads" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{3745232E-EC3D-4E19-A4D3-3402BBD4120F}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1255,26 +1357,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D145" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="3"/>
-    <col min="4" max="4" width="33.5703125" style="4"/>
-    <col min="6" max="8" width="33.5703125" style="3"/>
+    <col min="1" max="1" width="50.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" style="3"/>
+    <col min="4" max="4" width="33.54296875" style="4"/>
+    <col min="5" max="5" width="33.54296875" style="1"/>
+    <col min="6" max="8" width="33.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1296,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,7 +1416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1381,7 +1484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1483,7 +1586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1636,7 +1739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -1653,7 +1756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1690,7 +1793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1707,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1741,7 +1844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -1795,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +1915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -1832,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1849,7 +1952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1986,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
@@ -1900,7 +2003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -1917,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
@@ -1934,7 +2037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -1951,7 +2054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1971,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +2091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2005,7 +2108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -2022,7 +2125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
@@ -2039,7 +2142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -2056,7 +2159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -2073,7 +2176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -2093,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
@@ -2110,7 +2213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -2130,7 +2233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -2150,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -2167,7 +2270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
@@ -2184,7 +2287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -2201,7 +2304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -2218,7 +2321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
@@ -2235,7 +2338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2252,7 +2355,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
@@ -2269,7 +2372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
@@ -2286,7 +2389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
@@ -2306,7 +2409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>109</v>
       </c>
@@ -2340,7 +2443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>102</v>
       </c>
@@ -2357,7 +2460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
@@ -2377,7 +2480,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>115</v>
       </c>
@@ -2394,7 +2497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
@@ -2411,7 +2514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>119</v>
       </c>
@@ -2428,7 +2531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>121</v>
       </c>
@@ -2445,7 +2548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>125</v>
       </c>
@@ -2462,7 +2565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
@@ -2479,7 +2582,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -2496,7 +2599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
@@ -2513,7 +2616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
@@ -2530,7 +2633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>133</v>
       </c>
@@ -2547,7 +2650,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>135</v>
       </c>
@@ -2564,7 +2667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>137</v>
       </c>
@@ -2584,7 +2687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>139</v>
       </c>
@@ -2601,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
@@ -2618,7 +2721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>144</v>
       </c>
@@ -2635,7 +2738,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>146</v>
       </c>
@@ -2652,7 +2755,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>148</v>
       </c>
@@ -2669,7 +2772,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>150</v>
       </c>
@@ -2686,7 +2789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>152</v>
       </c>
@@ -2703,7 +2806,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>154</v>
       </c>
@@ -2723,7 +2826,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>156</v>
       </c>
@@ -2740,7 +2843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>159</v>
       </c>
@@ -2757,7 +2860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -2774,7 +2877,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
@@ -2794,7 +2897,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>165</v>
       </c>
@@ -2811,7 +2914,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>167</v>
       </c>
@@ -2828,7 +2931,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>169</v>
       </c>
@@ -2845,7 +2948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>171</v>
       </c>
@@ -2862,7 +2965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>173</v>
       </c>
@@ -2879,7 +2982,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>175</v>
       </c>
@@ -2896,7 +2999,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>177</v>
       </c>
@@ -2913,7 +3016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>179</v>
       </c>
@@ -2933,7 +3036,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>181</v>
       </c>
@@ -2950,7 +3053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>183</v>
       </c>
@@ -2967,7 +3070,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
@@ -2984,7 +3087,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>187</v>
       </c>
@@ -3001,7 +3104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>189</v>
       </c>
@@ -3018,7 +3121,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>191</v>
       </c>
@@ -3035,7 +3138,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>193</v>
       </c>
@@ -3052,7 +3155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>195</v>
       </c>
@@ -3069,7 +3172,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>197</v>
       </c>
@@ -3086,7 +3189,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>199</v>
       </c>
@@ -3103,7 +3206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>201</v>
       </c>
@@ -3120,7 +3223,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>203</v>
       </c>
@@ -3137,7 +3240,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>205</v>
       </c>
@@ -3154,7 +3257,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>206</v>
       </c>
@@ -3171,7 +3274,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>208</v>
       </c>
@@ -3188,7 +3291,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>210</v>
       </c>
@@ -3205,7 +3308,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>212</v>
       </c>
@@ -3222,7 +3325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>214</v>
       </c>
@@ -3239,7 +3342,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>216</v>
       </c>
@@ -3259,7 +3362,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>218</v>
       </c>
@@ -3276,7 +3379,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>220</v>
       </c>
@@ -3296,7 +3399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>222</v>
       </c>
@@ -3316,7 +3419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>224</v>
       </c>
@@ -3336,7 +3439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>226</v>
       </c>
@@ -3353,7 +3456,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>228</v>
       </c>
@@ -3370,7 +3473,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>230</v>
       </c>
@@ -3387,7 +3490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>231</v>
       </c>
@@ -3404,7 +3507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>234</v>
       </c>
@@ -3421,7 +3524,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>235</v>
       </c>
@@ -3438,7 +3541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>237</v>
       </c>
@@ -3455,7 +3558,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>239</v>
       </c>
@@ -3472,7 +3575,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>241</v>
       </c>
@@ -3489,7 +3592,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>243</v>
       </c>
@@ -3506,7 +3609,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>245</v>
       </c>
@@ -3523,7 +3626,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>247</v>
       </c>
@@ -3540,7 +3643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>249</v>
       </c>
@@ -3557,7 +3660,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>251</v>
       </c>
@@ -3574,7 +3677,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>253</v>
       </c>
@@ -3591,7 +3694,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>255</v>
       </c>
@@ -3608,7 +3711,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>257</v>
       </c>
@@ -3625,7 +3728,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>259</v>
       </c>
@@ -3642,7 +3745,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>261</v>
       </c>
@@ -3659,7 +3762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>263</v>
       </c>
@@ -3676,7 +3779,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>265</v>
       </c>
@@ -3696,7 +3799,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>267</v>
       </c>
@@ -3713,7 +3816,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>269</v>
       </c>
@@ -3730,7 +3833,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="29.65" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>270</v>
       </c>
@@ -3750,7 +3853,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>273</v>
       </c>
@@ -3767,7 +3870,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>274</v>
       </c>
@@ -3787,7 +3890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>237</v>
       </c>
@@ -3804,209 +3907,313 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1986</v>
+      </c>
       <c r="D146" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E146" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1934</v>
+      </c>
       <c r="D147" s="4">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E147" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1964</v>
+      </c>
       <c r="D148" s="4">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E148" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1961</v>
+      </c>
       <c r="D149" s="4">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2003</v>
+      </c>
       <c r="D150" s="4">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E150" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="3">
+        <v>2012</v>
+      </c>
       <c r="D151" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E151" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1960</v>
+      </c>
       <c r="D152" s="4">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E152" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1962</v>
+      </c>
       <c r="D153" s="4">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E153" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1997</v>
+      </c>
       <c r="D154" s="4">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E154" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2000</v>
+      </c>
       <c r="D155" s="4">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E155" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1976</v>
+      </c>
       <c r="D156" s="4">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E156" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1976</v>
+      </c>
       <c r="D157" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E157" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1949</v>
+      </c>
       <c r="D158" s="4">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E158" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1972</v>
+      </c>
       <c r="D159" s="4">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E159" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1936</v>
+      </c>
       <c r="D160" s="4">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E160" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1973</v>
+      </c>
       <c r="D161" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E161" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1997</v>
+      </c>
       <c r="D162" s="4">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
+      <c r="E162" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1979</v>
+      </c>
       <c r="D163" s="4">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D164" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D165" s="4">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D166" s="4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D167" s="4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D168" s="4">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D169" s="4">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D170" s="4">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D171" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D172" s="4">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D173" s="4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D174" s="4">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" ht="14.85" x14ac:dyDescent="0.25">
-      <c r="D175" s="4">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="4">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="4">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="4">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="4">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="4">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="4">
-        <v>185</v>
+      <c r="E163" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
